--- a/report/pics/graphs_top10.xlsx
+++ b/report/pics/graphs_top10.xlsx
@@ -228,7 +228,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -243,7 +243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,27 +298,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>Sheet1!$L$3:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9786</c:v>
+                  <c:v>0.9652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9501</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8879</c:v>
+                  <c:v>0.8655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9165</c:v>
+                  <c:v>0.8681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9154</c:v>
+                  <c:v>0.8749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9126</c:v>
+                  <c:v>0.8909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,7 +329,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -384,27 +384,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Sheet1!$P$3:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8392</c:v>
+                  <c:v>0.7994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8432</c:v>
+                  <c:v>0.8019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8575</c:v>
+                  <c:v>0.8257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8832</c:v>
+                  <c:v>0.8446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.895</c:v>
+                  <c:v>0.8622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8967</c:v>
+                  <c:v>0.8588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,7 +415,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,27 +470,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>Sheet1!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9501</c:v>
+                  <c:v>0.9372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8086</c:v>
+                  <c:v>0.8954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5763</c:v>
+                  <c:v>0.7147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7371</c:v>
+                  <c:v>0.7128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7445</c:v>
+                  <c:v>0.7343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7397</c:v>
+                  <c:v>0.7861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +501,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -556,27 +556,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:f>Sheet1!$Q$3:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.532</c:v>
+                  <c:v>0.6141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3219</c:v>
+                  <c:v>0.4966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4868</c:v>
+                  <c:v>0.6313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6373</c:v>
+                  <c:v>0.6657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6874</c:v>
+                  <c:v>0.709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6957</c:v>
+                  <c:v>0.7233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,11 +584,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="2821171"/>
-        <c:axId val="8696608"/>
+        <c:axId val="2700506"/>
+        <c:axId val="16665115"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2821171"/>
+        <c:axId val="2700506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,14 +623,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8696608"/>
+        <c:crossAx val="16665115"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8696608"/>
+        <c:axId val="16665115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -675,7 +675,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2821171"/>
+        <c:crossAx val="2700506"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -711,7 +711,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -726,7 +726,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,27 +781,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$8</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9652</c:v>
+                  <c:v>0.9786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.9501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8655</c:v>
+                  <c:v>0.8879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8681</c:v>
+                  <c:v>0.9165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8749</c:v>
+                  <c:v>0.9154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8909</c:v>
+                  <c:v>0.9126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +812,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>Sheet1!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -867,27 +867,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$8</c:f>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.7994</c:v>
+                  <c:v>0.8392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8019</c:v>
+                  <c:v>0.8432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8257</c:v>
+                  <c:v>0.8575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8446</c:v>
+                  <c:v>0.8832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8622</c:v>
+                  <c:v>0.895</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8588</c:v>
+                  <c:v>0.8967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +898,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,27 +953,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$8</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9372</c:v>
+                  <c:v>0.9501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8954</c:v>
+                  <c:v>0.8086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7147</c:v>
+                  <c:v>0.5763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7128</c:v>
+                  <c:v>0.7371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7343</c:v>
+                  <c:v>0.7445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7861</c:v>
+                  <c:v>0.7397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +984,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1039,27 +1039,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$8</c:f>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.6141</c:v>
+                  <c:v>0.532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4966</c:v>
+                  <c:v>0.3219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6313</c:v>
+                  <c:v>0.4868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6657</c:v>
+                  <c:v>0.6373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.709</c:v>
+                  <c:v>0.6874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7233</c:v>
+                  <c:v>0.6957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,11 +1067,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="89809652"/>
-        <c:axId val="15287104"/>
+        <c:axId val="42317118"/>
+        <c:axId val="5057582"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89809652"/>
+        <c:axId val="42317118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,14 +1106,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15287104"/>
+        <c:crossAx val="5057582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15287104"/>
+        <c:axId val="5057582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1158,7 +1158,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89809652"/>
+        <c:crossAx val="42317118"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1206,8 +1206,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>325800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1216,7 +1216,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5760000" cy="3241080"/>
+        <a:ext cx="5760000" cy="2880000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1236,8 +1236,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>165960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1246,7 +1246,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5760000" cy="3241440"/>
+        <a:ext cx="5760000" cy="2880000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">

--- a/report/pics/graphs_top10.xlsx
+++ b/report/pics/graphs_top10.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +101,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -233,6 +238,45 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>top-10-code</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -243,11 +287,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Train Acc</c:v>
+                  <c:v>Train F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -262,7 +306,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -298,27 +341,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$8</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9652</c:v>
+                  <c:v>0.9501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.8086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8655</c:v>
+                  <c:v>0.5763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8681</c:v>
+                  <c:v>0.7371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8749</c:v>
+                  <c:v>0.7445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8909</c:v>
+                  <c:v>0.7397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,97 +372,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test Acc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conv1D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$3:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.7994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8257</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8446</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8622</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Train F1</c:v>
+                  <c:v>Test F1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -434,7 +391,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -470,113 +426,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$8</c:f>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9372</c:v>
+                  <c:v>0.532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8954</c:v>
+                  <c:v>0.3219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7147</c:v>
+                  <c:v>0.4868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7128</c:v>
+                  <c:v>0.6373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7343</c:v>
+                  <c:v>0.6874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Test F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>LR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Conv1D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LSTM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GRU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.6141</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6313</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6657</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.709</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7233</c:v>
+                  <c:v>0.6957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,11 +454,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="2700506"/>
-        <c:axId val="16665115"/>
+        <c:axId val="53258798"/>
+        <c:axId val="62593853"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2700506"/>
+        <c:axId val="53258798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,14 +493,843 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16665115"/>
+        <c:crossAx val="62593853"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16665115"/>
+        <c:axId val="62593853"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53258798"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>top-10-cat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.6141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="85570411"/>
+        <c:axId val="95655685"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85570411"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95655685"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95655685"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85570411"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.8392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Conv1D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GRU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="79939407"/>
+        <c:axId val="64693833"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79939407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64693833"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64693833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -675,7 +1374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2700506"/>
+        <c:crossAx val="79939407"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -726,7 +1425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,27 +1480,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>Sheet1!$L$3:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9786</c:v>
+                  <c:v>0.9652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9501</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8879</c:v>
+                  <c:v>0.8655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9165</c:v>
+                  <c:v>0.8681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9154</c:v>
+                  <c:v>0.8749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9126</c:v>
+                  <c:v>0.8909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +1511,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -867,27 +1566,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Sheet1!$P$3:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.8392</c:v>
+                  <c:v>0.7994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8432</c:v>
+                  <c:v>0.8019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8575</c:v>
+                  <c:v>0.8257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8832</c:v>
+                  <c:v>0.8446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.895</c:v>
+                  <c:v>0.8622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8967</c:v>
+                  <c:v>0.8588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +1597,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,27 +1652,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>Sheet1!$M$3:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.9501</c:v>
+                  <c:v>0.9372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8086</c:v>
+                  <c:v>0.8954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5763</c:v>
+                  <c:v>0.7147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7371</c:v>
+                  <c:v>0.7128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7445</c:v>
+                  <c:v>0.7343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7397</c:v>
+                  <c:v>0.7861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +1683,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1039,27 +1738,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:f>Sheet1!$Q$3:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.532</c:v>
+                  <c:v>0.6141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3219</c:v>
+                  <c:v>0.4966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4868</c:v>
+                  <c:v>0.6313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6373</c:v>
+                  <c:v>0.6657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6874</c:v>
+                  <c:v>0.709</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6957</c:v>
+                  <c:v>0.7233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,11 +1766,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="42317118"/>
-        <c:axId val="5057582"/>
+        <c:axId val="85653957"/>
+        <c:axId val="79174710"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42317118"/>
+        <c:axId val="85653957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,14 +1805,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5057582"/>
+        <c:crossAx val="79174710"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5057582"/>
+        <c:axId val="79174710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1158,7 +1857,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42317118"/>
+        <c:crossAx val="85653957"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1205,9 +1904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1216,7 +1915,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="119160" y="1491840"/>
-        <a:ext cx="5760000" cy="2880000"/>
+        <a:ext cx="5759640" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1235,9 +1934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
+      <xdr:colOff>165600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1246,11 +1945,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6207840" y="1539360"/>
-        <a:ext cx="5760000" cy="2880000"/>
+        <a:ext cx="5759640" cy="2879640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464760</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="258840" y="4862160"/>
+        <a:ext cx="5759280" cy="3236400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96840</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6139800" y="4832280"/>
+        <a:ext cx="5758920" cy="3251160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1266,8 +2025,8 @@
   </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
